--- a/templates/excel/fda-template-email-08.xlsx
+++ b/templates/excel/fda-template-email-08.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tapani/src/tidepool/reports/templates/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A96DAD-152C-A141-A2A8-55C34A7F814E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F517DC5C-84B0-2F45-9E54-A2A3AFEE0260}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1100" windowWidth="31380" windowHeight="16940" xr2:uid="{65B606C8-7B73-2B4A-9146-6FF011B77E80}"/>
+    <workbookView xWindow="860" yWindow="1100" windowWidth="31380" windowHeight="16940" activeTab="2" xr2:uid="{65B606C8-7B73-2B4A-9146-6FF011B77E80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hazard Analysis - Comms" sheetId="10" r:id="rId1"/>
-    <sheet name="Hazard Analysis - Devices" sheetId="11" r:id="rId2"/>
+    <sheet name="Hazard Analysis - Comms" sheetId="18" r:id="rId1"/>
+    <sheet name="Hazard Analysis - Devices" sheetId="10" r:id="rId2"/>
+    <sheet name="Traceability Report" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+  <si>
+    <t>Req ID</t>
+  </si>
+  <si>
+    <t>Req Key</t>
+  </si>
+  <si>
+    <t>Req Feature</t>
+  </si>
+  <si>
+    <t>Req Description</t>
+  </si>
+  <si>
+    <t>Story Key</t>
+  </si>
+  <si>
+    <t>Story Summary</t>
+  </si>
+  <si>
+    <t>Test Key</t>
+  </si>
+  <si>
+    <t>Test Summary</t>
+  </si>
+  <si>
+    <t>Test Status</t>
+  </si>
   <si>
     <t>Risk Key</t>
   </si>
@@ -112,16 +140,19 @@
     <t>Residual Risk Score</t>
   </si>
   <si>
-    <t>&lt;&lt;&lt;insert: hazard_analysis('filter': [ 'TLR-620', 'TLR-550', 'TLR-695', 'TLR-686', 'TLR-685', 'TLR-632', 'TLR-609', 'TLR-608', 'TLR-569', 'TLR-563', 'TLR-551', 'TLR-552', 'TLR-575', 'TLR-576', 'TLR-579', 'TLR-583', 'TLR-605', 'TLR-623', 'TLR-625', 'TLR-634', 'TLR-635', 'TLR-681', 'TLR-685', 'TLR-686', 'TLR-713', 'TLR-717' ])&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Hazard Analysis: Wireless Communication</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;insert: hazard_analysis('filter': [ 'TLR-605', 'TLR-601', 'TLR-609', 'TLR-617', 'TLR-586', 'TLR-552', 'TLR-576', 'TLR-549', 'TLR-553', 'TLR-552', 'TLR-604', 'TLR-718', 'TLR-691', 'TLR-548' ])&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Hazard Analysis: Device Integration</t>
+    <t>Full Traceability Report</t>
+  </si>
+  <si>
+    <t>Hazard Analysis</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;insert: hazard_analysis('mitigation_id': True, 'filter': [ 'TLR-620', 'TLR-550', 'TLR-695', 'TLR-686', 'TLR-685', 'TLR-632', 'TLR-609', 'TLR-608', 'TLR-569', 'TLR-563', 'TLR-551', 'TLR-552', 'TLR-575', 'TLR-576', 'TLR-579', 'TLR-583', 'TLR-605', 'TLR-623', 'TLR-625', 'TLR-634', 'TLR-635', 'TLR-681', 'TLR-685', 'TLR-686', 'TLR-713', 'TLR-717' ])&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;insert: hazard_analysis('mitigation_id': True, 'filter': [ 'TLR-605', 'TLR-601', 'TLR-609', 'TLR-617', 'TLR-586', 'TLR-552', 'TLR-576', 'TLR-549', 'TLR-553', 'TLR-552', 'TLR-604', 'TLR-718', 'TLR-691', 'TLR-548' ])&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;insert: traceability_report('full': True, 'filter_id': [ '16.', '17.'  ], 'filter': [ 'TLFR-100','TLFR-105','TLFR-123','TLFR-124','TLFR-125','TLFR-126','TLFR-128','TLFR-132','TLFR-133','TLFR-134','TLFR-143','TLFR-145','TLFR-146','TLFR-147','TLFR-148','TLFR-149','TLFR-150','TLFR-151','TLFR-152','TLFR-160','TLFR-161','TLFR-191','TLFR-193','TLFR-222','TLFR-231','TLFR-232','TLFR-235','TLFR-244','TLFR-245','TLFR-247','TLFR-248','TLFR-249','TLFR-250','TLFR-251','TLFR-252','TLFR-257','TLFR-259','TLFR-260','TLFR-261','TLFR-262','TLFR-263','TLFR-270','TLFR-272','TLFR-31','TLFR-330','TLFR-339','TLFR-342','TLFR-343','TLFR-356','TLFR-358','TLFR-364','TLFR-368','TLFR-37','TLFR-375','TLFR-397','TLFR-400','TLFR-401','TLFR-50','TLFR-51','TLFR-52','TLFR-56','TLFR-57','TLFR-58','TLFR-59','TLFR-60','TLFR-61','TLFR-62','TLFR-9','TLFR-92','TLFR-94','TLFR-95' ], 'filter_risks': [ 'TLR-605', 'TLR-601', 'TLR-609', 'TLR-617', 'TLR-586', 'TLR-552', 'TLR-576', 'TLR-549', 'TLR-553', 'TLR-552', 'TLR-604', 'TLR-718', 'TLR-691', 'TLR-548' ])&gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -223,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -244,7 +275,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,14 +588,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DB245F-55D2-7749-AB29-396B342A89D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7F78CD-89B0-1643-81AA-DC8D2A52ADBC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,108 +607,113 @@
     <col min="5" max="6" width="25.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="13" width="50.6640625" customWidth="1"/>
-    <col min="14" max="15" width="12.6640625" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="14" width="50.6640625" customWidth="1"/>
+    <col min="15" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -693,128 +728,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1979E34-7116-4342-93E5-BCB7F52C540F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DB245F-55D2-7749-AB29-396B342A89D5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="8" customWidth="1"/>
-    <col min="5" max="6" width="25.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="8" customWidth="1"/>
-    <col min="8" max="9" width="12.6640625" style="8" customWidth="1"/>
-    <col min="10" max="11" width="11.6640625" style="8" customWidth="1"/>
-    <col min="12" max="13" width="50.6640625" style="8" customWidth="1"/>
-    <col min="14" max="15" width="12.6640625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" style="8" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="14" width="50.6640625" customWidth="1"/>
+    <col min="15" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -826,4 +865,97 @@
     <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Generated on {timestamp}&amp;R&amp;"Calibri,Regular"&amp;K000000Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB712DE-DA1C-244F-93C8-BEF80B566C1F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="4" width="50.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="50.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="50.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="37" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <headerFooter scaleWithDoc="0">
+    <oddHeader>&amp;L&amp;"Calibri,Regular"&amp;K000000Tidepool Loop 1.0.0&amp;R&amp;"Calibri,Regular"&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;"Calibri,Regular"&amp;K000000Generated on {timestamp}&amp;R&amp;"Calibri,Regular"&amp;K000000Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>